--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Cd47.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H2">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I2">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J2">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N2">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O2">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P2">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q2">
-        <v>1847.053334803778</v>
+        <v>2351.340390774059</v>
       </c>
       <c r="R2">
-        <v>16623.480013234</v>
+        <v>21162.06351696654</v>
       </c>
       <c r="S2">
-        <v>0.004077866437869162</v>
+        <v>0.01096644047679375</v>
       </c>
       <c r="T2">
-        <v>0.004077866437869161</v>
+        <v>0.01096644047679375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H3">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I3">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J3">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>213.429389</v>
       </c>
       <c r="O3">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P3">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q3">
-        <v>2226.113584585456</v>
+        <v>2947.364886011895</v>
       </c>
       <c r="R3">
-        <v>20035.0222612691</v>
+        <v>26526.28397410705</v>
       </c>
       <c r="S3">
-        <v>0.004914743771830511</v>
+        <v>0.0137462452108863</v>
       </c>
       <c r="T3">
-        <v>0.00491474377183051</v>
+        <v>0.01374624521088631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H4">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I4">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J4">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N4">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O4">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P4">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q4">
-        <v>2140.367809911067</v>
+        <v>5169.793384671165</v>
       </c>
       <c r="R4">
-        <v>19263.3102891996</v>
+        <v>46528.14046204049</v>
       </c>
       <c r="S4">
-        <v>0.004725436939079562</v>
+        <v>0.02411145219669992</v>
       </c>
       <c r="T4">
-        <v>0.004725436939079561</v>
+        <v>0.02411145219669992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H5">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I5">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J5">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N5">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O5">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P5">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q5">
-        <v>640.3699350008555</v>
+        <v>890.520878487195</v>
       </c>
       <c r="R5">
-        <v>5763.3294150077</v>
+        <v>8014.687906384755</v>
       </c>
       <c r="S5">
-        <v>0.001413788663573086</v>
+        <v>0.004153309425377155</v>
       </c>
       <c r="T5">
-        <v>0.001413788663573086</v>
+        <v>0.004153309425377156</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H6">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I6">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J6">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N6">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O6">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P6">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q6">
-        <v>2326.370129712901</v>
+        <v>3583.672198423604</v>
       </c>
       <c r="R6">
-        <v>20937.3311674161</v>
+        <v>32253.04978581244</v>
       </c>
       <c r="S6">
-        <v>0.005136087028599734</v>
+        <v>0.01671392538764475</v>
       </c>
       <c r="T6">
-        <v>0.005136087028599733</v>
+        <v>0.01671392538764475</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N7">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O7">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P7">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q7">
-        <v>10048.63148204938</v>
+        <v>9661.763488782635</v>
       </c>
       <c r="R7">
-        <v>90437.68333844443</v>
+        <v>86955.87139904372</v>
       </c>
       <c r="S7">
-        <v>0.02218505350930639</v>
+        <v>0.04506159746854582</v>
       </c>
       <c r="T7">
-        <v>0.02218505350930639</v>
+        <v>0.04506159746854584</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>213.429389</v>
       </c>
       <c r="O8">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P8">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q8">
         <v>12110.85496405529</v>
@@ -948,10 +948,10 @@
         <v>108997.6946764976</v>
       </c>
       <c r="S8">
-        <v>0.02673796585146729</v>
+        <v>0.05648394022724736</v>
       </c>
       <c r="T8">
-        <v>0.02673796585146729</v>
+        <v>0.05648394022724738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N9">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O9">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P9">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q9">
-        <v>11644.36724840017</v>
+        <v>21242.91368640275</v>
       </c>
       <c r="R9">
-        <v>104799.3052356016</v>
+        <v>191186.2231776247</v>
       </c>
       <c r="S9">
-        <v>0.02570806889965548</v>
+        <v>0.0990750422225823</v>
       </c>
       <c r="T9">
-        <v>0.02570806889965548</v>
+        <v>0.09907504222258232</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N10">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O10">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P10">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q10">
-        <v>3483.84173199369</v>
+        <v>3659.190367981467</v>
       </c>
       <c r="R10">
-        <v>31354.57558794321</v>
+        <v>32932.7133118332</v>
       </c>
       <c r="S10">
-        <v>0.007691516539371768</v>
+        <v>0.01706613535036311</v>
       </c>
       <c r="T10">
-        <v>0.007691516539371768</v>
+        <v>0.01706613535036311</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N11">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O11">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P11">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q11">
-        <v>12656.28646658208</v>
+        <v>14725.47034804101</v>
       </c>
       <c r="R11">
-        <v>113906.5781992387</v>
+        <v>132529.2331323691</v>
       </c>
       <c r="S11">
-        <v>0.02794215242063685</v>
+        <v>0.06867827163527866</v>
       </c>
       <c r="T11">
-        <v>0.02794215242063685</v>
+        <v>0.06867827163527869</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H12">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I12">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J12">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N12">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O12">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P12">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q12">
-        <v>35652.10132160112</v>
+        <v>13881.253941058</v>
       </c>
       <c r="R12">
-        <v>320868.9118944101</v>
+        <v>124931.285469522</v>
       </c>
       <c r="S12">
-        <v>0.07871159141937445</v>
+        <v>0.06474092210773358</v>
       </c>
       <c r="T12">
-        <v>0.07871159141937445</v>
+        <v>0.06474092210773361</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H13">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I13">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J13">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>213.429389</v>
       </c>
       <c r="O13">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P13">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q13">
-        <v>42968.77928512268</v>
+        <v>17399.91393854294</v>
       </c>
       <c r="R13">
-        <v>386719.0135661041</v>
+        <v>156599.2254468865</v>
       </c>
       <c r="S13">
-        <v>0.09486512361140025</v>
+        <v>0.08115163642706318</v>
       </c>
       <c r="T13">
-        <v>0.09486512361140025</v>
+        <v>0.0811516364270632</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H14">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I14">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J14">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N14">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O14">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P14">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q14">
-        <v>41313.70144357499</v>
+        <v>30520.13016788172</v>
       </c>
       <c r="R14">
-        <v>371823.3129921749</v>
+        <v>274681.1715109355</v>
       </c>
       <c r="S14">
-        <v>0.09121109464811358</v>
+        <v>0.1423431469740926</v>
       </c>
       <c r="T14">
-        <v>0.09121109464811358</v>
+        <v>0.1423431469740926</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H15">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I15">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J15">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N15">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O15">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P15">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q15">
-        <v>12360.51681657749</v>
+        <v>5257.233917555166</v>
       </c>
       <c r="R15">
-        <v>111244.6513491974</v>
+        <v>47315.1052579965</v>
       </c>
       <c r="S15">
-        <v>0.02728916146127066</v>
+        <v>0.02451926699156926</v>
       </c>
       <c r="T15">
-        <v>0.02728916146127066</v>
+        <v>0.02451926699156927</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H16">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I16">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J16">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N16">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O16">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P16">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q16">
-        <v>44903.94620081819</v>
+        <v>21156.3855335515</v>
       </c>
       <c r="R16">
-        <v>404135.5158073637</v>
+        <v>190407.4698019635</v>
       </c>
       <c r="S16">
-        <v>0.09913752445034399</v>
+        <v>0.09867148268627128</v>
       </c>
       <c r="T16">
-        <v>0.09913752445034399</v>
+        <v>0.09867148268627129</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H17">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N17">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O17">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P17">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q17">
-        <v>2565.622169334024</v>
+        <v>1371.985605793908</v>
       </c>
       <c r="R17">
-        <v>23090.59952400621</v>
+        <v>12347.87045214517</v>
       </c>
       <c r="S17">
-        <v>0.005664300179881784</v>
+        <v>0.006398817687133612</v>
       </c>
       <c r="T17">
-        <v>0.005664300179881784</v>
+        <v>0.006398817687133613</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H18">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>213.429389</v>
       </c>
       <c r="O18">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P18">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q18">
-        <v>3092.150213775405</v>
+        <v>1719.760445785361</v>
       </c>
       <c r="R18">
-        <v>27829.35192397865</v>
+        <v>15477.84401206825</v>
       </c>
       <c r="S18">
-        <v>0.006826752287011916</v>
+        <v>0.008020808317268292</v>
       </c>
       <c r="T18">
-        <v>0.006826752287011916</v>
+        <v>0.008020808317268294</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H19">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N19">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O19">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P19">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q19">
-        <v>2973.046311204718</v>
+        <v>3016.527141934748</v>
       </c>
       <c r="R19">
-        <v>26757.41680084246</v>
+        <v>27148.74427741273</v>
       </c>
       <c r="S19">
-        <v>0.006563798425442001</v>
+        <v>0.0140688117630515</v>
       </c>
       <c r="T19">
-        <v>0.006563798425442001</v>
+        <v>0.0140688117630515</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H20">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N20">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O20">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P20">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q20">
-        <v>889.4964053583877</v>
+        <v>519.6107852939011</v>
       </c>
       <c r="R20">
-        <v>8005.46764822549</v>
+        <v>4676.497067645109</v>
       </c>
       <c r="S20">
-        <v>0.001963802273420315</v>
+        <v>0.002423418051416092</v>
       </c>
       <c r="T20">
-        <v>0.001963802273420315</v>
+        <v>0.002423418051416093</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H21">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N21">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O21">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P21">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q21">
-        <v>3231.410087842407</v>
+        <v>2091.039941053539</v>
       </c>
       <c r="R21">
-        <v>29082.69079058166</v>
+        <v>18819.35946948185</v>
       </c>
       <c r="S21">
-        <v>0.007134205870457054</v>
+        <v>0.009752422549341314</v>
       </c>
       <c r="T21">
-        <v>0.007134205870457054</v>
+        <v>0.009752422549341316</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H22">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>59.02895333333333</v>
+        <v>56.756364</v>
       </c>
       <c r="N22">
-        <v>177.08686</v>
+        <v>170.269092</v>
       </c>
       <c r="O22">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="P22">
-        <v>0.2011980443121526</v>
+        <v>0.157357217290148</v>
       </c>
       <c r="Q22">
-        <v>41018.44320448118</v>
+        <v>6472.989001200736</v>
       </c>
       <c r="R22">
-        <v>369165.9888403307</v>
+        <v>58256.90101080662</v>
       </c>
       <c r="S22">
-        <v>0.09055923276572084</v>
+        <v>0.03018943954994117</v>
       </c>
       <c r="T22">
-        <v>0.09055923276572084</v>
+        <v>0.03018943954994117</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H23">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>213.429389</v>
       </c>
       <c r="O23">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="P23">
-        <v>0.2424887745230654</v>
+        <v>0.1972445753159741</v>
       </c>
       <c r="Q23">
-        <v>49436.42498863903</v>
+        <v>8113.780788412224</v>
       </c>
       <c r="R23">
-        <v>444927.8248977513</v>
+        <v>73024.02709571001</v>
       </c>
       <c r="S23">
-        <v>0.1091441890013555</v>
+        <v>0.0378419451335089</v>
       </c>
       <c r="T23">
-        <v>0.1091441890013555</v>
+        <v>0.03784194513350891</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H24">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>68.402828</v>
+        <v>124.7878343333334</v>
       </c>
       <c r="N24">
-        <v>205.208484</v>
+        <v>374.363503</v>
       </c>
       <c r="O24">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="P24">
-        <v>0.233148555782522</v>
+        <v>0.3459747062436438</v>
       </c>
       <c r="Q24">
-        <v>47532.22540640049</v>
+        <v>14231.88911684558</v>
       </c>
       <c r="R24">
-        <v>427790.0286576044</v>
+        <v>128087.0020516102</v>
       </c>
       <c r="S24">
-        <v>0.1049401568702314</v>
+        <v>0.06637625308721751</v>
       </c>
       <c r="T24">
-        <v>0.1049401568702314</v>
+        <v>0.06637625308721751</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H25">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.46522766666667</v>
+        <v>21.495283</v>
       </c>
       <c r="N25">
-        <v>61.39568300000001</v>
+        <v>64.485849</v>
       </c>
       <c r="O25">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="P25">
-        <v>0.0697549854845745</v>
+        <v>0.05959574714377799</v>
       </c>
       <c r="Q25">
-        <v>14221.01750596194</v>
+        <v>2451.508881659459</v>
       </c>
       <c r="R25">
-        <v>127989.1575536575</v>
+        <v>22063.57993493513</v>
       </c>
       <c r="S25">
-        <v>0.03139671654693866</v>
+        <v>0.01143361732505236</v>
       </c>
       <c r="T25">
-        <v>0.03139671654693866</v>
+        <v>0.01143361732505236</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H26">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>74.34717300000001</v>
+        <v>86.50223699999999</v>
       </c>
       <c r="N26">
-        <v>223.041519</v>
+        <v>259.506711</v>
       </c>
       <c r="O26">
-        <v>0.2534096398976854</v>
+        <v>0.239827754006456</v>
       </c>
       <c r="P26">
-        <v>0.2534096398976854</v>
+        <v>0.2398277540064561</v>
       </c>
       <c r="Q26">
-        <v>51662.87255498637</v>
+        <v>9865.466869587688</v>
       </c>
       <c r="R26">
-        <v>464965.8529948773</v>
+        <v>88789.20182628919</v>
       </c>
       <c r="S26">
-        <v>0.1140596701276478</v>
+        <v>0.04601165174792001</v>
       </c>
       <c r="T26">
-        <v>0.1140596701276478</v>
+        <v>0.04601165174792002</v>
       </c>
     </row>
   </sheetData>
